--- a/Excels/Test.xlsx
+++ b/Excels/Test.xlsx
@@ -24,12 +24,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>字段1</t>
-  </si>
-  <si>
-    <t>字段2</t>
-  </si>
-  <si>
     <t>testInt1</t>
   </si>
   <si>
@@ -40,6 +34,12 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>字段1</t>
+  </si>
+  <si>
+    <t>字段2</t>
   </si>
   <si>
     <t>abc123</t>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
